--- a/Activity_TestAutomation.xlsx
+++ b/Activity_TestAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\kristu\jan2024\softwaretesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B917BC-F308-409C-9F09-9EC9D8BBE476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902AC800-FBC7-44CD-9709-5827B569B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,6 @@
     <t>01,04,07,08,09</t>
   </si>
   <si>
-    <t>1. Explore the usage of Selenium IDE.
-2. Demonstate working of selenium IDE for any website</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -72,10 +68,6 @@
   </si>
   <si>
     <t>43,44,48,49,51</t>
-  </si>
-  <si>
-    <t>1.Explore usage of Jira
-2. Demonstrate configuration of agile project using jira</t>
   </si>
   <si>
     <t>Manoj Joseph</t>
@@ -105,10 +97,6 @@
     <t>71,74,76,02,03</t>
   </si>
   <si>
-    <t>1.Explore API testing using Jmeter
-2. Demonstate usage of Jmeter to test API</t>
-  </si>
-  <si>
     <t>Arya</t>
   </si>
   <si>
@@ -148,43 +136,60 @@
     <t>Swetha</t>
   </si>
   <si>
-    <t>1. Demonstate automation of following functionality in guru 99 banking project using selenium
+    <t>47,50,51,53,55,56</t>
+  </si>
+  <si>
+    <t>Ashwini and Tanmay</t>
+  </si>
+  <si>
+    <t>10,11,12,13,17</t>
+  </si>
+  <si>
+    <t>Avin Saji and team</t>
+  </si>
+  <si>
+    <t>Section B</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1. Explore the usage of Selenium IDE.
+2. Demonstate working of selenium IDE for any website
+3. Each team member must take a different website to demonstrate working of ide</t>
+  </si>
+  <si>
+    <t>1. Demonstate automation of following functionality in flipkart using selenium webdriver and testng
+a. Search
+b. Add to Cart
+c. My Orders
+d. Each team member must automate different funcationlity</t>
+  </si>
+  <si>
+    <t>1.Explore usage of Jira
+2. Demonstrate configuration of agile project using jira
+3. Create demo project. Add backlog like registration,
+login,search</t>
+  </si>
+  <si>
+    <t>1.Explore API testing using Jmeter
+2. Demonstate usage of Jmeter to test API
+sample api:openweathermap</t>
+  </si>
+  <si>
+    <t>1. Demonstate automation (testng and selenium) of following functionality in guru 99 banking project using selenium
 a. Registration
 b. Login
 c. Customer creation</t>
   </si>
   <si>
-    <t>47,50,51,53,55,56</t>
-  </si>
-  <si>
-    <t>Ashwini and Tanmay</t>
-  </si>
-  <si>
-    <t>1. Demonstate automation of following functionality in amazon using selenium
+    <t>1. Demonstate automation of following functionality (selenium and testng) in amazon using selenium
 a. Search
 b. Add to Cart
 c. My Orders</t>
-  </si>
-  <si>
-    <t>10,11,12,13,17</t>
-  </si>
-  <si>
-    <t>1. Demonstate automation of following functionality in flipkart using selenium
-a. Search
-b. Add to Cart
-c. My Orders</t>
-  </si>
-  <si>
-    <t>Avin Saji and team</t>
-  </si>
-  <si>
-    <t>Section B</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -267,18 +272,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -581,13 +585,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -595,27 +599,27 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -624,13 +628,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -639,28 +643,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -669,13 +673,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -684,31 +688,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -716,13 +720,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -731,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -746,28 +750,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -776,13 +780,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1"/>
     </row>

--- a/Activity_TestAutomation.xlsx
+++ b/Activity_TestAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\kristu\jan2024\softwaretesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902AC800-FBC7-44CD-9709-5827B569B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00362E70-0F62-4610-B6E9-6B22AB899FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Sl No</t>
   </si>
@@ -190,6 +190,18 @@
 a. Search
 b. Add to Cart
 c. My Orders</t>
+  </si>
+  <si>
+    <t>35,38,39,41,42</t>
+  </si>
+  <si>
+    <t>Likitha</t>
+  </si>
+  <si>
+    <t>1. Demonstate automation of following functionality (selenium and testng) in linked-in using selenium
+a. Register
+b. Login
+c. add a post</t>
   </si>
 </sst>
 </file>
@@ -561,15 +573,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="46.88671875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
@@ -790,6 +802,21 @@
       </c>
       <c r="E14" s="1"/>
     </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
